--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd59b-Cd2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd59b-Cd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Cd59b</t>
   </si>
   <si>
     <t>Cd2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5066323333333332</v>
+        <v>1.759809666666667</v>
       </c>
       <c r="H2">
-        <v>1.519897</v>
+        <v>5.279429</v>
       </c>
       <c r="I2">
-        <v>0.1228388594091567</v>
+        <v>0.2747376635041531</v>
       </c>
       <c r="J2">
-        <v>0.1228388594091568</v>
+        <v>0.2747376635041531</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.3533263333333334</v>
+        <v>0.1866386666666666</v>
       </c>
       <c r="N2">
-        <v>1.059979</v>
+        <v>0.559916</v>
       </c>
       <c r="O2">
-        <v>0.4564318550963779</v>
+        <v>0.1464055063004341</v>
       </c>
       <c r="P2">
-        <v>0.456431855096378</v>
+        <v>0.1464055063004341</v>
       </c>
       <c r="Q2">
-        <v>0.1790065446847778</v>
+        <v>0.3284485297737778</v>
       </c>
       <c r="R2">
-        <v>1.611058902163</v>
+        <v>2.956036767964</v>
       </c>
       <c r="S2">
-        <v>0.05606756847804457</v>
+        <v>0.04022310672512384</v>
       </c>
       <c r="T2">
-        <v>0.05606756847804458</v>
+        <v>0.04022310672512384</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5066323333333332</v>
+        <v>1.759809666666667</v>
       </c>
       <c r="H3">
-        <v>1.519897</v>
+        <v>5.279429</v>
       </c>
       <c r="I3">
-        <v>0.1228388594091567</v>
+        <v>0.2747376635041531</v>
       </c>
       <c r="J3">
-        <v>0.1228388594091568</v>
+        <v>0.2747376635041531</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,43 +617,43 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.420779</v>
+        <v>0.3533263333333334</v>
       </c>
       <c r="N3">
-        <v>1.262337</v>
+        <v>1.059979</v>
       </c>
       <c r="O3">
-        <v>0.543568144903622</v>
+        <v>0.2771607922667469</v>
       </c>
       <c r="P3">
-        <v>0.5435681449036222</v>
+        <v>0.2771607922667469</v>
       </c>
       <c r="Q3">
-        <v>0.2131802465876666</v>
+        <v>0.6217870968878889</v>
       </c>
       <c r="R3">
-        <v>1.918622219289</v>
+        <v>5.596083871991</v>
       </c>
       <c r="S3">
-        <v>0.06677129093111217</v>
+        <v>0.07614650848232601</v>
       </c>
       <c r="T3">
-        <v>0.06677129093111218</v>
+        <v>0.076146508482326</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.625122666666666</v>
+        <v>1.759809666666667</v>
       </c>
       <c r="H4">
-        <v>7.875368</v>
+        <v>5.279429</v>
       </c>
       <c r="I4">
-        <v>0.6364913033892244</v>
+        <v>0.2747376635041531</v>
       </c>
       <c r="J4">
-        <v>0.6364913033892244</v>
+        <v>0.2747376635041531</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3533263333333334</v>
+        <v>0.7348413333333333</v>
       </c>
       <c r="N4">
-        <v>1.059979</v>
+        <v>2.204524</v>
       </c>
       <c r="O4">
-        <v>0.4564318550963779</v>
+        <v>0.576433701432819</v>
       </c>
       <c r="P4">
-        <v>0.456431855096378</v>
+        <v>0.5764337014328189</v>
       </c>
       <c r="Q4">
-        <v>0.9275249663635555</v>
+        <v>1.293180881866222</v>
       </c>
       <c r="R4">
-        <v>8.347724697272</v>
+        <v>11.638627936796</v>
       </c>
       <c r="S4">
-        <v>0.2905149063586552</v>
+        <v>0.1583680482967033</v>
       </c>
       <c r="T4">
-        <v>0.2905149063586552</v>
+        <v>0.1583680482967033</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,51 +729,51 @@
         <v>7.875368</v>
       </c>
       <c r="I5">
-        <v>0.6364913033892244</v>
+        <v>0.4098284499242958</v>
       </c>
       <c r="J5">
-        <v>0.6364913033892244</v>
+        <v>0.4098284499242958</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.420779</v>
+        <v>0.1866386666666666</v>
       </c>
       <c r="N5">
-        <v>1.262337</v>
+        <v>0.559916</v>
       </c>
       <c r="O5">
-        <v>0.543568144903622</v>
+        <v>0.1464055063004341</v>
       </c>
       <c r="P5">
-        <v>0.5435681449036222</v>
+        <v>0.1464055063004341</v>
       </c>
       <c r="Q5">
-        <v>1.104596490557333</v>
+        <v>0.489949394343111</v>
       </c>
       <c r="R5">
-        <v>9.941368415016001</v>
+        <v>4.409544549087999</v>
       </c>
       <c r="S5">
-        <v>0.3459763970305692</v>
+        <v>0.06000114170748864</v>
       </c>
       <c r="T5">
-        <v>0.3459763970305693</v>
+        <v>0.06000114170748864</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9926103333333334</v>
+        <v>2.625122666666666</v>
       </c>
       <c r="H6">
-        <v>2.977831</v>
+        <v>7.875368</v>
       </c>
       <c r="I6">
-        <v>0.2406698372016187</v>
+        <v>0.4098284499242958</v>
       </c>
       <c r="J6">
-        <v>0.2406698372016187</v>
+        <v>0.4098284499242958</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,84 +809,456 @@
         <v>1.059979</v>
       </c>
       <c r="O6">
-        <v>0.4564318550963779</v>
+        <v>0.2771607922667469</v>
       </c>
       <c r="P6">
-        <v>0.456431855096378</v>
+        <v>0.2771607922667469</v>
       </c>
       <c r="Q6">
-        <v>0.3507153695054445</v>
+        <v>0.9275249663635555</v>
       </c>
       <c r="R6">
-        <v>3.156438325549</v>
+        <v>8.347724697272</v>
       </c>
       <c r="S6">
-        <v>0.1098493802596781</v>
+        <v>0.1135883778744707</v>
       </c>
       <c r="T6">
-        <v>0.1098493802596781</v>
+        <v>0.1135883778744706</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.625122666666666</v>
+      </c>
+      <c r="H7">
+        <v>7.875368</v>
+      </c>
+      <c r="I7">
+        <v>0.4098284499242958</v>
+      </c>
+      <c r="J7">
+        <v>0.4098284499242958</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.7348413333333333</v>
+      </c>
+      <c r="N7">
+        <v>2.204524</v>
+      </c>
+      <c r="O7">
+        <v>0.576433701432819</v>
+      </c>
+      <c r="P7">
+        <v>0.5764337014328189</v>
+      </c>
+      <c r="Q7">
+        <v>1.929048640536889</v>
+      </c>
+      <c r="R7">
+        <v>17.361437764832</v>
+      </c>
+      <c r="S7">
+        <v>0.2362389303423366</v>
+      </c>
+      <c r="T7">
+        <v>0.2362389303423365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.823129666666667</v>
+      </c>
+      <c r="H8">
+        <v>5.469389</v>
+      </c>
+      <c r="I8">
+        <v>0.2846230443965278</v>
+      </c>
+      <c r="J8">
+        <v>0.2846230443965278</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1866386666666666</v>
+      </c>
+      <c r="N8">
+        <v>0.559916</v>
+      </c>
+      <c r="O8">
+        <v>0.1464055063004341</v>
+      </c>
+      <c r="P8">
+        <v>0.1464055063004341</v>
+      </c>
+      <c r="Q8">
+        <v>0.3402664901471111</v>
+      </c>
+      <c r="R8">
+        <v>3.062398411324</v>
+      </c>
+      <c r="S8">
+        <v>0.04167038091964459</v>
+      </c>
+      <c r="T8">
+        <v>0.04167038091964459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.823129666666667</v>
+      </c>
+      <c r="H9">
+        <v>5.469389</v>
+      </c>
+      <c r="I9">
+        <v>0.2846230443965278</v>
+      </c>
+      <c r="J9">
+        <v>0.2846230443965278</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.3533263333333334</v>
+      </c>
+      <c r="N9">
+        <v>1.059979</v>
+      </c>
+      <c r="O9">
+        <v>0.2771607922667469</v>
+      </c>
+      <c r="P9">
+        <v>0.2771607922667469</v>
+      </c>
+      <c r="Q9">
+        <v>0.6441597203145556</v>
+      </c>
+      <c r="R9">
+        <v>5.797437482831</v>
+      </c>
+      <c r="S9">
+        <v>0.07888634848231514</v>
+      </c>
+      <c r="T9">
+        <v>0.07888634848231511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.823129666666667</v>
+      </c>
+      <c r="H10">
+        <v>5.469389</v>
+      </c>
+      <c r="I10">
+        <v>0.2846230443965278</v>
+      </c>
+      <c r="J10">
+        <v>0.2846230443965278</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.7348413333333333</v>
+      </c>
+      <c r="N10">
+        <v>2.204524</v>
+      </c>
+      <c r="O10">
+        <v>0.576433701432819</v>
+      </c>
+      <c r="P10">
+        <v>0.5764337014328189</v>
+      </c>
+      <c r="Q10">
+        <v>1.339711035092889</v>
+      </c>
+      <c r="R10">
+        <v>12.057399315836</v>
+      </c>
+      <c r="S10">
+        <v>0.1640663149945681</v>
+      </c>
+      <c r="T10">
+        <v>0.1640663149945681</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.9926103333333334</v>
-      </c>
-      <c r="H7">
-        <v>2.977831</v>
-      </c>
-      <c r="I7">
-        <v>0.2406698372016187</v>
-      </c>
-      <c r="J7">
-        <v>0.2406698372016187</v>
-      </c>
-      <c r="K7">
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.1973563333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.5920690000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.03081084217502318</v>
+      </c>
+      <c r="J11">
+        <v>0.03081084217502318</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.1866386666666666</v>
+      </c>
+      <c r="N11">
+        <v>0.559916</v>
+      </c>
+      <c r="O11">
+        <v>0.1464055063004341</v>
+      </c>
+      <c r="P11">
+        <v>0.1464055063004341</v>
+      </c>
+      <c r="Q11">
+        <v>0.03683432291155556</v>
+      </c>
+      <c r="R11">
+        <v>0.331508906204</v>
+      </c>
+      <c r="S11">
+        <v>0.004510876948177037</v>
+      </c>
+      <c r="T11">
+        <v>0.004510876948177037</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.1973563333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.5920690000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.03081084217502318</v>
+      </c>
+      <c r="J12">
+        <v>0.03081084217502318</v>
+      </c>
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="L7">
+      <c r="L12">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M7">
-        <v>0.420779</v>
-      </c>
-      <c r="N7">
-        <v>1.262337</v>
-      </c>
-      <c r="O7">
-        <v>0.543568144903622</v>
-      </c>
-      <c r="P7">
-        <v>0.5435681449036222</v>
-      </c>
-      <c r="Q7">
-        <v>0.4176695834496667</v>
-      </c>
-      <c r="R7">
-        <v>3.759026251047</v>
-      </c>
-      <c r="S7">
-        <v>0.1308204569419406</v>
-      </c>
-      <c r="T7">
-        <v>0.1308204569419407</v>
+      <c r="M12">
+        <v>0.3533263333333334</v>
+      </c>
+      <c r="N12">
+        <v>1.059979</v>
+      </c>
+      <c r="O12">
+        <v>0.2771607922667469</v>
+      </c>
+      <c r="P12">
+        <v>0.2771607922667469</v>
+      </c>
+      <c r="Q12">
+        <v>0.06973118961677779</v>
+      </c>
+      <c r="R12">
+        <v>0.6275807065510001</v>
+      </c>
+      <c r="S12">
+        <v>0.008539557427635125</v>
+      </c>
+      <c r="T12">
+        <v>0.008539557427635123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.1973563333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.5920690000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.03081084217502318</v>
+      </c>
+      <c r="J13">
+        <v>0.03081084217502318</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7348413333333333</v>
+      </c>
+      <c r="N13">
+        <v>2.204524</v>
+      </c>
+      <c r="O13">
+        <v>0.576433701432819</v>
+      </c>
+      <c r="P13">
+        <v>0.5764337014328189</v>
+      </c>
+      <c r="Q13">
+        <v>0.1450255911284445</v>
+      </c>
+      <c r="R13">
+        <v>1.305230320156</v>
+      </c>
+      <c r="S13">
+        <v>0.01776040779921102</v>
+      </c>
+      <c r="T13">
+        <v>0.01776040779921102</v>
       </c>
     </row>
   </sheetData>
